--- a/SuppXLS/Scen_FUEL_PRICE_PROJ.xlsx
+++ b/SuppXLS/Scen_FUEL_PRICE_PROJ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\TIMES_STUDENTS_FULL\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wacla\Desktop\AGH\IERP\TIMES_STUDENTS_FULL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEA1DFB-3F59-4396-9AC0-BC23BC63EBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B10BE9D-D299-48CD-BF9C-7F2D208E6DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="23232" windowHeight="18576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FUEL COST" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="35">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>BIOM</t>
+  </si>
+  <si>
+    <t>IMP_HYDROGEN</t>
+  </si>
+  <si>
+    <t>HYDROGEN</t>
   </si>
 </sst>
 </file>
@@ -626,10 +632,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Arkusz1"/>
-  <dimension ref="B1:I69"/>
+  <dimension ref="B1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1936,6 +1942,136 @@
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
     </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="9">
+        <v>2025</v>
+      </c>
+      <c r="E70" s="8">
+        <v>68</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="7">
+        <v>2030</v>
+      </c>
+      <c r="E71" s="6">
+        <v>66.7</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="9">
+        <v>2035</v>
+      </c>
+      <c r="E72" s="8">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="7">
+        <v>2040</v>
+      </c>
+      <c r="E73" s="6">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="9">
+        <v>2045</v>
+      </c>
+      <c r="E74" s="8">
+        <v>62.8</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B75" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="7">
+        <v>2050</v>
+      </c>
+      <c r="E75" s="6">
+        <v>61.5</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B76" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1943,26 +2079,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -2157,10 +2273,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C16AA386-286C-4D87-9ADF-A1BAAC4E8E2F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FE0647E-6A20-4391-BED9-7FFA19B5197D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2179,20 +2326,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FE0647E-6A20-4391-BED9-7FFA19B5197D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C16AA386-286C-4D87-9ADF-A1BAAC4E8E2F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_FUEL_PRICE_PROJ.xlsx
+++ b/SuppXLS/Scen_FUEL_PRICE_PROJ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wacla\Desktop\AGH\IERP\TIMES_STUDENTS_FULL\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B10BE9D-D299-48CD-BF9C-7F2D208E6DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35C114F-5A7B-48C9-96FB-769803F789F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="38">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -137,6 +137,15 @@
   </si>
   <si>
     <t>HYDROGEN</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MIN_PINK_HYDROGEN</t>
+  </si>
+  <si>
+    <t>MIN_GREEN_HYDROGEN</t>
   </si>
 </sst>
 </file>
@@ -146,7 +155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +205,17 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -282,10 +302,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -327,9 +357,21 @@
     <xf numFmtId="2" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Normal 10" xfId="2" xr:uid="{3669FC49-D161-4D21-93FA-6EF5687A7B06}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{9FAF50E9-6BE7-463D-B611-C955C0E16049}"/>
+    <cellStyle name="Normal_MIN" xfId="6" xr:uid="{59886F74-CCBC-47EB-9093-56C266093F76}"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny 10" xfId="4" xr:uid="{978F45B4-97EB-47BD-86F9-5428C99144F6}"/>
+    <cellStyle name="Normalny 2" xfId="5" xr:uid="{115E97AC-6AF0-4B23-87EE-E572AD6B3967}"/>
+    <cellStyle name="Normalny 3" xfId="9" xr:uid="{8BEC488B-82B3-4BC6-9051-29563DDB496F}"/>
+    <cellStyle name="Normalny 4" xfId="1" xr:uid="{6EA6CC96-5A17-45B2-B51D-88EA43A6CA19}"/>
+    <cellStyle name="Procentowy 2" xfId="10" xr:uid="{82B84B98-E477-4BC7-913D-1F92D8FC2C85}"/>
+    <cellStyle name="Procentowy 3" xfId="8" xr:uid="{89DB20D1-4D58-4D97-A569-A0AA2DB25656}"/>
+    <cellStyle name="Procentowy 4" xfId="7" xr:uid="{6C3C50D8-8110-458C-92FA-497EAE6BA7E6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -632,10 +674,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Arkusz1"/>
-  <dimension ref="B1:I76"/>
+  <dimension ref="B1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2072,6 +2114,266 @@
       <c r="F76" s="13"/>
       <c r="G76" s="13"/>
     </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B77" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" s="9">
+        <v>2025</v>
+      </c>
+      <c r="E77" s="8">
+        <v>120</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B78" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" s="7">
+        <v>2030</v>
+      </c>
+      <c r="E78" s="6">
+        <v>116.7</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B79" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" s="9">
+        <v>2035</v>
+      </c>
+      <c r="E79" s="8">
+        <v>113.4</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B80" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D80" s="7">
+        <v>2040</v>
+      </c>
+      <c r="E80" s="6">
+        <v>110.1</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" s="9">
+        <v>2045</v>
+      </c>
+      <c r="E81" s="8">
+        <v>106.8</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82" s="7">
+        <v>2050</v>
+      </c>
+      <c r="E82" s="6">
+        <v>103.5</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B83" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D84" s="9">
+        <v>2025</v>
+      </c>
+      <c r="E84" s="8">
+        <v>95</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85" s="7">
+        <v>2030</v>
+      </c>
+      <c r="E85" s="6">
+        <v>93.3</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86" s="9">
+        <v>2035</v>
+      </c>
+      <c r="E86" s="8">
+        <v>91.6</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D87" s="7">
+        <v>2040</v>
+      </c>
+      <c r="E87" s="6">
+        <v>89.9</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D88" s="9">
+        <v>2045</v>
+      </c>
+      <c r="E88" s="8">
+        <v>88.2</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D89" s="7">
+        <v>2050</v>
+      </c>
+      <c r="E89" s="6">
+        <v>86.5</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B90" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2079,6 +2381,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -2273,17 +2586,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2294,6 +2596,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30F527F4-AA3D-4858-9795-87D0E232ABB3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FE0647E-6A20-4391-BED9-7FFA19B5197D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2312,19 +2627,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30F527F4-AA3D-4858-9795-87D0E232ABB3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C16AA386-286C-4D87-9ADF-A1BAAC4E8E2F}">
   <ds:schemaRefs>

--- a/SuppXLS/Scen_FUEL_PRICE_PROJ.xlsx
+++ b/SuppXLS/Scen_FUEL_PRICE_PROJ.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wacla\Desktop\AGH\IERP\TIMES_STUDENTS_FULL\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35C114F-5A7B-48C9-96FB-769803F789F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="FUEL COST" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="35">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -137,21 +136,12 @@
   </si>
   <si>
     <t>HYDROGEN</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>MIN_PINK_HYDROGEN</t>
-  </si>
-  <si>
-    <t>MIN_GREEN_HYDROGEN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
   </numFmts>
@@ -315,7 +305,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -357,21 +347,19 @@
     <xf numFmtId="2" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9"/>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Normal 10" xfId="2" xr:uid="{3669FC49-D161-4D21-93FA-6EF5687A7B06}"/>
-    <cellStyle name="Normal 4" xfId="3" xr:uid="{9FAF50E9-6BE7-463D-B611-C955C0E16049}"/>
-    <cellStyle name="Normal_MIN" xfId="6" xr:uid="{59886F74-CCBC-47EB-9093-56C266093F76}"/>
+    <cellStyle name="Normal 10" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal_MIN" xfId="6"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalny 10" xfId="4" xr:uid="{978F45B4-97EB-47BD-86F9-5428C99144F6}"/>
-    <cellStyle name="Normalny 2" xfId="5" xr:uid="{115E97AC-6AF0-4B23-87EE-E572AD6B3967}"/>
-    <cellStyle name="Normalny 3" xfId="9" xr:uid="{8BEC488B-82B3-4BC6-9051-29563DDB496F}"/>
-    <cellStyle name="Normalny 4" xfId="1" xr:uid="{6EA6CC96-5A17-45B2-B51D-88EA43A6CA19}"/>
-    <cellStyle name="Procentowy 2" xfId="10" xr:uid="{82B84B98-E477-4BC7-913D-1F92D8FC2C85}"/>
-    <cellStyle name="Procentowy 3" xfId="8" xr:uid="{89DB20D1-4D58-4D97-A569-A0AA2DB25656}"/>
-    <cellStyle name="Procentowy 4" xfId="7" xr:uid="{6C3C50D8-8110-458C-92FA-497EAE6BA7E6}"/>
+    <cellStyle name="Normalny 10" xfId="4"/>
+    <cellStyle name="Normalny 2" xfId="5"/>
+    <cellStyle name="Normalny 3" xfId="9"/>
+    <cellStyle name="Normalny 4" xfId="1"/>
+    <cellStyle name="Procentowy 2" xfId="10"/>
+    <cellStyle name="Procentowy 3" xfId="8"/>
+    <cellStyle name="Procentowy 4" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -387,9 +375,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -427,9 +415,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,7 +452,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,7 +487,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -672,29 +660,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Arkusz1"/>
-  <dimension ref="B1:I90"/>
+  <dimension ref="B1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K82" sqref="K82"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
@@ -705,8 +693,8 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
@@ -718,7 +706,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -738,7 +726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
@@ -758,7 +746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
@@ -778,7 +766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
@@ -800,7 +788,7 @@
         <v>HC</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
@@ -822,7 +810,7 @@
         <v>HC</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
@@ -844,7 +832,7 @@
         <v>HC</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>7</v>
       </c>
@@ -866,7 +854,7 @@
         <v>HC</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
@@ -888,7 +876,7 @@
         <v>HC</v>
       </c>
     </row>
-    <row r="13" spans="2:9" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>14</v>
       </c>
@@ -898,7 +886,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>7</v>
       </c>
@@ -918,7 +906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
@@ -940,7 +928,7 @@
         <v>BC</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>7</v>
       </c>
@@ -962,7 +950,7 @@
         <v>BC</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>7</v>
       </c>
@@ -984,7 +972,7 @@
         <v>BC</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>7</v>
       </c>
@@ -1006,7 +994,7 @@
         <v>BC</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
@@ -1028,7 +1016,7 @@
         <v>BC</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
         <v>14</v>
       </c>
@@ -1038,7 +1026,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>7</v>
       </c>
@@ -1058,7 +1046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
@@ -1080,7 +1068,7 @@
         <v>NAT-GAS</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>7</v>
       </c>
@@ -1102,7 +1090,7 @@
         <v>NAT-GAS</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>7</v>
       </c>
@@ -1124,7 +1112,7 @@
         <v>NAT-GAS</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>7</v>
       </c>
@@ -1146,7 +1134,7 @@
         <v>NAT-GAS</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>7</v>
       </c>
@@ -1168,7 +1156,7 @@
         <v>NAT-GAS</v>
       </c>
     </row>
-    <row r="27" spans="2:7" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>14</v>
       </c>
@@ -1178,7 +1166,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>7</v>
       </c>
@@ -1199,7 +1187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>7</v>
       </c>
@@ -1222,7 +1210,7 @@
         <v>NAT-GAS</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
         <v>7</v>
       </c>
@@ -1245,7 +1233,7 @@
         <v>NAT-GAS</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>7</v>
       </c>
@@ -1268,7 +1256,7 @@
         <v>NAT-GAS</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
         <v>7</v>
       </c>
@@ -1291,7 +1279,7 @@
         <v>NAT-GAS</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>7</v>
       </c>
@@ -1314,7 +1302,7 @@
         <v>NAT-GAS</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
         <v>14</v>
       </c>
@@ -1324,7 +1312,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
         <v>7</v>
       </c>
@@ -1344,7 +1332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>7</v>
       </c>
@@ -1366,7 +1354,7 @@
         <v>URAN</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
         <v>7</v>
       </c>
@@ -1388,7 +1376,7 @@
         <v>URAN</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>7</v>
       </c>
@@ -1410,7 +1398,7 @@
         <v>URAN</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>7</v>
       </c>
@@ -1432,7 +1420,7 @@
         <v>URAN</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
         <v>7</v>
       </c>
@@ -1454,7 +1442,7 @@
         <v>URAN</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="13" t="s">
         <v>14</v>
       </c>
@@ -1464,7 +1452,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
         <v>7</v>
       </c>
@@ -1484,7 +1472,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>7</v>
       </c>
@@ -1504,7 +1492,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
         <v>7</v>
       </c>
@@ -1524,7 +1512,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
         <v>7</v>
       </c>
@@ -1544,7 +1532,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
         <v>7</v>
       </c>
@@ -1564,7 +1552,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
         <v>7</v>
       </c>
@@ -1584,7 +1572,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="13" t="s">
         <v>14</v>
       </c>
@@ -1594,7 +1582,7 @@
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>7</v>
       </c>
@@ -1614,7 +1602,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>7</v>
       </c>
@@ -1634,7 +1622,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>7</v>
       </c>
@@ -1654,7 +1642,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
         <v>7</v>
       </c>
@@ -1674,7 +1662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
         <v>7</v>
       </c>
@@ -1694,7 +1682,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
         <v>7</v>
       </c>
@@ -1714,7 +1702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="13" t="s">
         <v>14</v>
       </c>
@@ -1724,7 +1712,7 @@
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
     </row>
-    <row r="56" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
         <v>7</v>
       </c>
@@ -1744,7 +1732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
         <v>7</v>
       </c>
@@ -1764,7 +1752,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
         <v>7</v>
       </c>
@@ -1784,7 +1772,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
         <v>7</v>
       </c>
@@ -1804,7 +1792,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="9" t="s">
         <v>7</v>
       </c>
@@ -1824,7 +1812,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
         <v>7</v>
       </c>
@@ -1844,7 +1832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="13" t="s">
         <v>14</v>
       </c>
@@ -1854,7 +1842,7 @@
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
     </row>
-    <row r="63" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="9" t="s">
         <v>7</v>
       </c>
@@ -1874,7 +1862,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
         <v>7</v>
       </c>
@@ -1894,7 +1882,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="9" t="s">
         <v>7</v>
       </c>
@@ -1914,7 +1902,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
         <v>7</v>
       </c>
@@ -1934,7 +1922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="9" t="s">
         <v>7</v>
       </c>
@@ -1954,7 +1942,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
         <v>7</v>
       </c>
@@ -1974,7 +1962,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
         <v>14</v>
       </c>
@@ -1984,7 +1972,7 @@
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
         <v>7</v>
       </c>
@@ -2004,7 +1992,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
         <v>7</v>
       </c>
@@ -2024,7 +2012,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="9" t="s">
         <v>7</v>
       </c>
@@ -2044,7 +2032,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
         <v>7</v>
       </c>
@@ -2064,7 +2052,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="s">
         <v>7</v>
       </c>
@@ -2084,7 +2072,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
         <v>7</v>
       </c>
@@ -2104,7 +2092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="13" t="s">
         <v>14</v>
       </c>
@@ -2113,266 +2101,6 @@
       <c r="E76" s="14"/>
       <c r="F76" s="13"/>
       <c r="G76" s="13"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B77" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D77" s="9">
-        <v>2025</v>
-      </c>
-      <c r="E77" s="8">
-        <v>120</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B78" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D78" s="7">
-        <v>2030</v>
-      </c>
-      <c r="E78" s="6">
-        <v>116.7</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B79" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D79" s="9">
-        <v>2035</v>
-      </c>
-      <c r="E79" s="8">
-        <v>113.4</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B80" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D80" s="7">
-        <v>2040</v>
-      </c>
-      <c r="E80" s="6">
-        <v>110.1</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B81" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D81" s="9">
-        <v>2045</v>
-      </c>
-      <c r="E81" s="8">
-        <v>106.8</v>
-      </c>
-      <c r="F81" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B82" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D82" s="7">
-        <v>2050</v>
-      </c>
-      <c r="E82" s="6">
-        <v>103.5</v>
-      </c>
-      <c r="F82" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B83" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B84" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D84" s="9">
-        <v>2025</v>
-      </c>
-      <c r="E84" s="8">
-        <v>95</v>
-      </c>
-      <c r="F84" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B85" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D85" s="7">
-        <v>2030</v>
-      </c>
-      <c r="E85" s="6">
-        <v>93.3</v>
-      </c>
-      <c r="F85" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B86" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D86" s="9">
-        <v>2035</v>
-      </c>
-      <c r="E86" s="8">
-        <v>91.6</v>
-      </c>
-      <c r="F86" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B87" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D87" s="7">
-        <v>2040</v>
-      </c>
-      <c r="E87" s="6">
-        <v>89.9</v>
-      </c>
-      <c r="F87" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B88" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D88" s="9">
-        <v>2045</v>
-      </c>
-      <c r="E88" s="8">
-        <v>88.2</v>
-      </c>
-      <c r="F88" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B89" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D89" s="7">
-        <v>2050</v>
-      </c>
-      <c r="E89" s="6">
-        <v>86.5</v>
-      </c>
-      <c r="F89" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B90" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2381,14 +2109,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2587,23 +2313,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30F527F4-AA3D-4858-9795-87D0E232ABB3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C16AA386-286C-4D87-9ADF-A1BAAC4E8E2F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2628,9 +2351,14 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C16AA386-286C-4D87-9ADF-A1BAAC4E8E2F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30F527F4-AA3D-4858-9795-87D0E232ABB3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>